--- a/nodejs/feedBuilder/goods-data.xlsx
+++ b/nodejs/feedBuilder/goods-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27555" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -706,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -731,6 +731,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1234,7 @@
       <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1259,7 +1262,7 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1287,7 +1290,7 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1315,7 +1318,7 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1343,7 +1346,7 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1371,7 +1374,7 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1399,7 +1402,7 @@
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
